--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_211.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_211.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,720 +488,690 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_62</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_128</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_298</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.3980769230769231</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['A:min/E', 'E:7', 'A:min']]</t>
+          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(40.12, 47.88)]</t>
+          <t>[['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(83.1, 90.02)]</t>
+          <t>[('0:00:18.320000', '0:00:25.820000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:00:00.344657', '0:00:11.337709')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_149</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_109</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.06976744186046512</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min'], ['C:maj/G', 'G:7', 'C:maj']]</t>
-        </is>
+          <t>schubert-winterreise_196</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_53</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.3809523809523809</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>[['G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(13.42, 17.82), (32.44, 34.8)]</t>
+          <t>[['A/3', 'E:7', 'A']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(12.54, 25.94), (69.24, 75.88)]</t>
+          <t>[('0:00:08.700000', '0:00:18.300000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:58.557000', '0:01:02.834000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_261</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_79</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.19375</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:min', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_181</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_68</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.4761904761904762</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'D:min']]</t>
+          <t>[['A#:maj', 'D#:7/C#', 'G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(60.854263, 66.566371)]</t>
+          <t>[['D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(53.28, 62.86)]</t>
+          <t>[('0:01:01.420000', '0:01:11')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:04.340000', '0:00:17.660000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.3939393939393939</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_58</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_71</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(55.4, 65.22)]</t>
+          <t>[['C:min', 'G:7/D', 'C:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(20.56, 26.4)]</t>
+          <t>[('0:00:37.960000', '0:00:44.800000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:00.360000', '0:00:07.140000')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_6</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_255</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.08684863523573201</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['B:min', 'E:min/B', 'B:min']]</t>
-        </is>
+          <t>isophonics_274</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_151</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.4333333333333333</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['D:min', 'G:min/5', 'D:min']]</t>
+          <t>[['Ab', 'Db', 'Ab', 'Db']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(27.36, 34.92)]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G', 'F:maj/A']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(27.789047, 31.109501)]</t>
+          <t>[('0:00:03.129454', '0:00:05.822970')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:6rHh8urosEFRI67xVa6fzU</t>
-        </is>
-      </c>
+          <t>[('0:01:57.540000', '0:02:02.700000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_5</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.07728085867620751</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['F:min/G#', 'G:hdim7/C#', 'C:7', 'F:min']]</t>
-        </is>
+          <t>isophonics_74</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_52</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3535714285714285</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min']]</t>
+          <t>[['A', 'E', 'A', 'E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(105.4, 123.26)]</t>
+          <t>[['C', 'G', 'C', 'G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(10.94, 16.32)]</t>
+          <t>[('0:00:35.197913', '0:00:52.299410')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:00:18.129546', '0:00:28.590136')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_64</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.05796064400715564</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['F:min/C', 'C:7', 'F:min']]</t>
-        </is>
+          <t>isophonics_138</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_110</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.1405405405405405</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['C:min', 'G:7', 'C:min']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(43.68, 45.8)]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(0.82, 6.76)]</t>
+          <t>[('0:00:01.129708', '0:00:06.125260')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:37.360000', '0:00:44.660000')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_86</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_92</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2113636363636364</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_132</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_138</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.1641025641025641</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['E:7', 'A', 'A']]</t>
+          <t>[['A#:min/C#', 'F:min/C', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(5.88, 11.46)]</t>
+          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(24.631133, 29.751133)]</t>
+          <t>[('0:00:43.380000', '0:00:45.800000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:00:16.720000', '0:00:26.460000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>spotify:track:7HTH1ppjkkOe7RLoBDKXYJ</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_69</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_43</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_7</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_79</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
+          <t>[['E:7', 'A:min', 'A:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(90.78, 113.6)]</t>
+          <t>[['E:7', 'A:min', 'A:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(87.44, 110.44)]</t>
+          <t>[('0:00:14.780000', '0:00:19.020000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:00:10.240000', '0:00:21.020000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_28</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_86</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
-        </is>
+          <t>schubert-winterreise_43</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_132</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.1230769230769231</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'G:maj', 'D:7/F#', 'B:7', 'E:min', 'G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(5.7, 19.72)]</t>
+          <t>[['F:min/C', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(5.88, 21.16)]</t>
+          <t>[('0:00:41.320000', '0:00:48.940000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:00:43.680000', '0:00:45.800000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_58</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1652173913043478</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_206</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_27</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(3.0, 5.28)]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(37.96, 44.8)]</t>
+          <t>[('0:00:22.600000', '0:00:25.720000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:00:58.780000', '0:01:01.540000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_110</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['A#:min/F', 'F:7', 'A#:min']]</t>
-        </is>
+          <t>schubert-winterreise_13</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_167</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['B:maj', 'F#:7', 'B:maj', 'F#:7', 'B:maj', 'F#:maj', 'B:maj', 'F#:maj', 'B:maj', 'F#:maj', 'B:maj', 'F#:maj', 'B:maj', 'E:7', 'A:maj', 'C#:7/G#', 'G:(3,5)', 'B:maj', 'G#:(3,5,b7,b9)', 'C#:min/F#', 'E:maj/F#', 'F#:7', 'B:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(74.5, 80.42)]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(37.36, 44.66)]</t>
+          <t>[('0:00:00.320000', '0:00:40.640000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:00:00.580000', '0:00:38.340000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_175</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1846153846153846</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_199</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_202</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['F#:7/B', 'B:min', 'E:min/B', 'B:min']]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(45.76, 55.48)]</t>
+          <t>[['C#:(3,5)', 'F:maj/A', 'A#:maj', 'F:maj/C', 'C:7', 'F:maj', 'F:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(23.14, 32.76)]</t>
+          <t>[('0:01:01.260000', '0:01:07.540000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:01:00.620000', '0:01:06.360000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1036789297658863</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['A:min/E', 'E:7', 'A:min'], ['A:min', 'D:min/A', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_176</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_118</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7', 'G:min'], ['G:min', 'C:min/G', 'G:min']]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(83.1, 90.02), (28.14, 36.1)]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(2.58, 5.02), (0.22, 3.44)]</t>
+          <t>[('0:00:10.100000', '0:01:03.440000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:11.060000', '0:01:06.820000')]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_58</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_28</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_1</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(7.7, 12.06)]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(37.96, 44.8)]</t>
+          <t>[('0:00:05.700000', '0:00:19.720000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:07.020000', '0:00:24.780000')]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_171</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_52</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1334681496461072</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'C#:7', 'F#:min', 'F#:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(3.82, 8.62)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(9.6, 25.04)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
